--- a/知识点目录/单元测试1-5试卷知识点目录.xlsx
+++ b/知识点目录/单元测试1-5试卷知识点目录.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8200" yWindow="860" windowWidth="20360" windowHeight="16120" tabRatio="500"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="28720" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="一" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="388">
   <si>
     <t>小题号</t>
   </si>
@@ -174,9 +174,6 @@
     <t>6759_0</t>
   </si>
   <si>
-    <t>6844_0</t>
-  </si>
-  <si>
     <t>6845_0</t>
   </si>
   <si>
@@ -211,9 +208,6 @@
     <t>6951_0</t>
   </si>
   <si>
-    <t>6942_0</t>
-  </si>
-  <si>
     <t>6943_0</t>
   </si>
   <si>
@@ -226,13 +220,7 @@
     <t>6846_0</t>
   </si>
   <si>
-    <t>6840_0</t>
-  </si>
-  <si>
     <t>6841_0</t>
-  </si>
-  <si>
-    <t>6848_0</t>
   </si>
   <si>
     <t>6855_0</t>
@@ -1004,10 +992,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完形填空类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>选择型完形填空</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1036,10 +1020,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>阅读理解类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>选择型阅读理解</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1056,18 +1036,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完形填空体裁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>记叙文</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完形填空题材</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>生活类完形填空</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1144,10 +1116,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完形填空类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>选择型完形填空</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1160,10 +1128,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>阅读理解类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>选择型阅读理解</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1176,18 +1140,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完形填空体裁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>记叙文</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完形填空题材</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>生活类完形填空</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1392,10 +1348,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完形填空类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>选择型完形填空</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1408,18 +1360,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>阅读理解类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>选择型阅读理解</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>阅读理解题材</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>生活类阅读理解</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1428,15 +1372,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完形填空类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>选词填空型完形填空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完形填空体裁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1607,12 +1543,14 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1768,12 +1706,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1790,6 +1722,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2071,41 +2009,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E211"/>
+  <dimension ref="A1:E202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="12" customWidth="1"/>
     <col min="3" max="3" width="22.1640625" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="14"/>
+    <col min="4" max="4" width="10.83203125" style="12"/>
     <col min="5" max="5" width="43.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="A1" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -2116,25 +2054,25 @@
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="13"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="13"/>
+      <c r="D3" s="11"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>371</v>
-      </c>
-      <c r="D4" s="13" t="s">
+      <c r="C4" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2142,152 +2080,152 @@
       <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>371</v>
-      </c>
-      <c r="D5" s="13" t="s">
+      <c r="C5" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>259</v>
+      <c r="E5" s="13" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>372</v>
-      </c>
-      <c r="D6" s="13" t="s">
+      <c r="C6" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>383</v>
+      <c r="E6" s="13" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="D7" s="13" t="s">
+      <c r="C7" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>384</v>
+      <c r="E7" s="13" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>373</v>
-      </c>
-      <c r="D8" s="13" t="s">
+      <c r="C8" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>385</v>
+      <c r="E8" s="13" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>374</v>
-      </c>
-      <c r="D9" s="13" t="s">
+      <c r="C9" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="15" t="s">
-        <v>386</v>
+      <c r="E9" s="13" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>374</v>
-      </c>
-      <c r="D10" s="13" t="s">
+      <c r="C10" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>387</v>
+      <c r="E10" s="13" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>374</v>
-      </c>
-      <c r="D11" s="13" t="s">
+      <c r="C11" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="15" t="s">
-        <v>388</v>
+      <c r="E11" s="13" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>9</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>374</v>
-      </c>
-      <c r="D12" s="13" t="s">
+      <c r="C12" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>389</v>
+      <c r="E12" s="13" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>10</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>375</v>
-      </c>
-      <c r="D13" s="13" t="s">
+      <c r="C13" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="13" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2295,50 +2233,50 @@
       <c r="A14" s="3">
         <v>11</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>376</v>
-      </c>
-      <c r="D14" s="13" t="s">
+      <c r="C14" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="15" t="s">
-        <v>390</v>
+      <c r="E14" s="13" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>12</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>377</v>
-      </c>
-      <c r="D15" s="13" t="s">
+      <c r="C15" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="15" t="s">
-        <v>391</v>
+      <c r="E15" s="13" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>13</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>378</v>
-      </c>
-      <c r="D16" s="13" t="s">
+      <c r="C16" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2346,33 +2284,33 @@
       <c r="A17" s="3">
         <v>14</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>379</v>
-      </c>
-      <c r="D17" s="13" t="s">
+      <c r="C17" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="15" t="s">
-        <v>392</v>
+      <c r="E17" s="13" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>15</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2380,110 +2318,110 @@
       <c r="A19" s="3">
         <v>16</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="15" t="s">
-        <v>259</v>
+      <c r="E19" s="13" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>17</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="15" t="s">
-        <v>393</v>
+      <c r="E20" s="13" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>18</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="D21" s="13" t="s">
+      <c r="C21" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="15" t="s">
-        <v>233</v>
+      <c r="E21" s="13" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>19</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="D22" s="13" t="s">
+      <c r="C22" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="D22" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="15" t="s">
-        <v>233</v>
+      <c r="E22" s="13" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>20</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="15" t="s">
-        <v>394</v>
+      <c r="E23" s="13" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="15"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="13"/>
     </row>
     <row r="25" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>1</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2491,1155 +2429,1055 @@
       <c r="A26" s="3">
         <v>2</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="D26" s="13" t="s">
+      <c r="C26" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="D26" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="15" t="s">
-        <v>395</v>
+      <c r="E26" s="13" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>3</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="D27" s="13" t="s">
+      <c r="C27" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="D27" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="15" t="s">
-        <v>155</v>
+      <c r="E27" s="13" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>4</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="D28" s="13" t="s">
+      <c r="C28" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="D28" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="15" t="s">
-        <v>174</v>
+      <c r="E28" s="13" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>5</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="15" t="s">
-        <v>396</v>
+      <c r="E29" s="13" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>6</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="13" t="s">
         <v>380</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>7</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="15" t="s">
-        <v>259</v>
+      <c r="E31" s="13" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>8</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="15" t="s">
-        <v>110</v>
+      <c r="E32" s="13" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>9</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="15" t="s">
-        <v>110</v>
+      <c r="E33" s="13" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="15"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="13"/>
     </row>
     <row r="35" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>260</v>
-      </c>
+      <c r="C35" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D35" s="11"/>
+      <c r="E35" s="13"/>
     </row>
     <row r="36" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>261</v>
+      <c r="B36" s="11"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="15"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="13"/>
     </row>
     <row r="38" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>1</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="D38" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="E38" s="13" t="s">
         <v>381</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>2</v>
       </c>
-      <c r="B39" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>399</v>
+      <c r="B39" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>3</v>
       </c>
-      <c r="B40" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>382</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>400</v>
+      <c r="B40" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>4</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>401</v>
+      <c r="C41" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>5</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="D42" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E42" s="15" t="s">
-        <v>110</v>
+      <c r="E42" s="13" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="13"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="15"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="13"/>
     </row>
     <row r="44" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D44" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C44" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E44" s="15" t="s">
-        <v>270</v>
+      <c r="E44" s="13" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>402</v>
+      <c r="B45" s="11"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B46" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>268</v>
+      <c r="B46" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E47" s="15" t="s">
-        <v>269</v>
+      <c r="B47" s="11"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="3"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E48" s="15" t="s">
-        <v>270</v>
+      <c r="A48" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>402</v>
+      <c r="B49" s="11"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>268</v>
+        <v>20</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="51" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>279</v>
+      <c r="B51" s="11"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="52" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>270</v>
+      <c r="B52" s="11"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="3"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="13" t="s">
+      <c r="A53" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="3"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E53" s="15" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E54" s="15" t="s">
-        <v>260</v>
+      <c r="E54" s="13" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="11"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="3"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E56" s="15" t="s">
-        <v>273</v>
-      </c>
+      <c r="B56" s="11"/>
+      <c r="C56" s="3"/>
     </row>
     <row r="57" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="3"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E57" s="15" t="s">
-        <v>274</v>
-      </c>
+      <c r="A57" s="14"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="7"/>
     </row>
     <row r="58" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E58" s="15" t="s">
-        <v>275</v>
-      </c>
+      <c r="B58" s="11"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="7"/>
     </row>
     <row r="59" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
-      <c r="B59" s="13"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E59" s="15" t="s">
-        <v>276</v>
-      </c>
+      <c r="B59" s="11"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="7"/>
     </row>
     <row r="60" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B60" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C60" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E60" s="15" t="s">
-        <v>260</v>
-      </c>
+      <c r="A60" s="3"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="7"/>
     </row>
     <row r="61" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
-      <c r="B61" s="13"/>
+      <c r="B61" s="11"/>
       <c r="C61" s="3"/>
-      <c r="D61" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E61" s="15" t="s">
-        <v>277</v>
-      </c>
+      <c r="D61" s="11"/>
+      <c r="E61" s="7"/>
     </row>
     <row r="62" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
-      <c r="B62" s="13"/>
+      <c r="B62" s="11"/>
       <c r="C62" s="3"/>
-      <c r="D62" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E62" s="15" t="s">
-        <v>273</v>
-      </c>
+      <c r="D62" s="11"/>
+      <c r="E62" s="7"/>
     </row>
     <row r="63" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
-      <c r="B63" s="13"/>
+      <c r="B63" s="11"/>
       <c r="C63" s="3"/>
-      <c r="D63" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E63" s="15" t="s">
-        <v>274</v>
-      </c>
+      <c r="D63" s="11"/>
+      <c r="E63" s="7"/>
     </row>
     <row r="64" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
-      <c r="B64" s="13"/>
+      <c r="B64" s="11"/>
       <c r="C64" s="3"/>
-      <c r="D64" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E64" s="15" t="s">
-        <v>275</v>
-      </c>
+      <c r="D64" s="11"/>
+      <c r="E64" s="7"/>
     </row>
     <row r="65" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
-      <c r="B65" s="13"/>
+      <c r="B65" s="11"/>
       <c r="C65" s="3"/>
-      <c r="D65" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E65" s="15" t="s">
-        <v>404</v>
-      </c>
+      <c r="D65" s="11"/>
+      <c r="E65" s="7"/>
     </row>
     <row r="66" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="16"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="17"/>
+      <c r="A66" s="3"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="11"/>
       <c r="E66" s="7"/>
     </row>
     <row r="67" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
-      <c r="B67" s="13"/>
+      <c r="B67" s="11"/>
       <c r="C67" s="3"/>
-      <c r="D67" s="13"/>
+      <c r="D67" s="11"/>
       <c r="E67" s="7"/>
     </row>
     <row r="68" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
-      <c r="B68" s="13"/>
+      <c r="B68" s="11"/>
       <c r="C68" s="3"/>
-      <c r="D68" s="13"/>
+      <c r="D68" s="11"/>
       <c r="E68" s="7"/>
     </row>
     <row r="69" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
-      <c r="B69" s="13"/>
+      <c r="B69" s="11"/>
       <c r="C69" s="3"/>
-      <c r="D69" s="13"/>
+      <c r="D69" s="11"/>
       <c r="E69" s="7"/>
     </row>
     <row r="70" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
-      <c r="B70" s="13"/>
+      <c r="B70" s="11"/>
       <c r="C70" s="3"/>
-      <c r="D70" s="13"/>
+      <c r="D70" s="11"/>
       <c r="E70" s="7"/>
     </row>
     <row r="71" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
-      <c r="B71" s="13"/>
+      <c r="B71" s="11"/>
       <c r="C71" s="3"/>
-      <c r="D71" s="13"/>
+      <c r="D71" s="11"/>
       <c r="E71" s="7"/>
     </row>
     <row r="72" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
-      <c r="B72" s="13"/>
+      <c r="B72" s="11"/>
       <c r="C72" s="3"/>
-      <c r="D72" s="13"/>
+      <c r="D72" s="11"/>
       <c r="E72" s="7"/>
     </row>
     <row r="73" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
-      <c r="B73" s="13"/>
+      <c r="B73" s="11"/>
       <c r="C73" s="3"/>
-      <c r="D73" s="13"/>
+      <c r="D73" s="11"/>
       <c r="E73" s="7"/>
     </row>
     <row r="74" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3"/>
-      <c r="B74" s="13"/>
+      <c r="B74" s="11"/>
       <c r="C74" s="3"/>
-      <c r="D74" s="13"/>
+      <c r="D74" s="11"/>
       <c r="E74" s="7"/>
     </row>
     <row r="75" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3"/>
-      <c r="B75" s="13"/>
+      <c r="B75" s="11"/>
       <c r="C75" s="3"/>
-      <c r="D75" s="13"/>
+      <c r="D75" s="11"/>
       <c r="E75" s="7"/>
     </row>
     <row r="76" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
-      <c r="B76" s="13"/>
+      <c r="B76" s="11"/>
       <c r="C76" s="3"/>
-      <c r="D76" s="13"/>
+      <c r="D76" s="11"/>
       <c r="E76" s="7"/>
     </row>
     <row r="77" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3"/>
-      <c r="B77" s="13"/>
+      <c r="B77" s="11"/>
       <c r="C77" s="3"/>
-      <c r="D77" s="13"/>
+      <c r="D77" s="11"/>
       <c r="E77" s="7"/>
     </row>
     <row r="78" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
-      <c r="B78" s="13"/>
+      <c r="B78" s="11"/>
       <c r="C78" s="3"/>
-      <c r="D78" s="13"/>
+      <c r="D78" s="11"/>
       <c r="E78" s="7"/>
     </row>
     <row r="79" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
-      <c r="B79" s="13"/>
+      <c r="B79" s="11"/>
       <c r="C79" s="3"/>
-      <c r="D79" s="13"/>
+      <c r="D79" s="11"/>
       <c r="E79" s="7"/>
     </row>
     <row r="80" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
-      <c r="B80" s="13"/>
+      <c r="B80" s="11"/>
       <c r="C80" s="3"/>
-      <c r="D80" s="13"/>
+      <c r="D80" s="11"/>
       <c r="E80" s="7"/>
     </row>
     <row r="81" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
-      <c r="B81" s="13"/>
+      <c r="B81" s="11"/>
       <c r="C81" s="3"/>
-      <c r="D81" s="13"/>
+      <c r="D81" s="11"/>
       <c r="E81" s="7"/>
     </row>
     <row r="82" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3"/>
-      <c r="B82" s="13"/>
+      <c r="B82" s="11"/>
       <c r="C82" s="3"/>
-      <c r="D82" s="13"/>
+      <c r="D82" s="11"/>
       <c r="E82" s="7"/>
     </row>
     <row r="83" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
-      <c r="B83" s="13"/>
+      <c r="B83" s="11"/>
       <c r="C83" s="3"/>
-      <c r="D83" s="13"/>
+      <c r="D83" s="11"/>
       <c r="E83" s="7"/>
     </row>
     <row r="84" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
-      <c r="B84" s="13"/>
+      <c r="B84" s="11"/>
       <c r="C84" s="3"/>
-      <c r="D84" s="13"/>
+      <c r="D84" s="11"/>
       <c r="E84" s="7"/>
     </row>
     <row r="85" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3"/>
-      <c r="B85" s="13"/>
+      <c r="B85" s="11"/>
       <c r="C85" s="3"/>
-      <c r="D85" s="13"/>
+      <c r="D85" s="11"/>
       <c r="E85" s="7"/>
     </row>
     <row r="86" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
-      <c r="B86" s="13"/>
+      <c r="B86" s="11"/>
       <c r="C86" s="3"/>
-      <c r="D86" s="13"/>
+      <c r="D86" s="11"/>
       <c r="E86" s="7"/>
     </row>
     <row r="87" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
-      <c r="B87" s="13"/>
+      <c r="B87" s="11"/>
       <c r="C87" s="3"/>
-      <c r="D87" s="13"/>
+      <c r="D87" s="11"/>
       <c r="E87" s="7"/>
     </row>
     <row r="88" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3"/>
-      <c r="B88" s="13"/>
+      <c r="B88" s="11"/>
       <c r="C88" s="3"/>
-      <c r="D88" s="13"/>
+      <c r="D88" s="11"/>
       <c r="E88" s="7"/>
     </row>
     <row r="89" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
-      <c r="B89" s="13"/>
+      <c r="B89" s="11"/>
       <c r="C89" s="3"/>
-      <c r="D89" s="13"/>
+      <c r="D89" s="11"/>
       <c r="E89" s="7"/>
     </row>
     <row r="90" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3"/>
-      <c r="B90" s="13"/>
+      <c r="B90" s="11"/>
       <c r="C90" s="3"/>
-      <c r="D90" s="13"/>
+      <c r="D90" s="11"/>
       <c r="E90" s="7"/>
     </row>
     <row r="91" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3"/>
-      <c r="B91" s="13"/>
+      <c r="B91" s="11"/>
       <c r="C91" s="3"/>
-      <c r="D91" s="13"/>
+      <c r="D91" s="11"/>
       <c r="E91" s="7"/>
     </row>
     <row r="92" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3"/>
-      <c r="B92" s="13"/>
+      <c r="B92" s="11"/>
       <c r="C92" s="3"/>
-      <c r="D92" s="13"/>
+      <c r="D92" s="11"/>
       <c r="E92" s="7"/>
     </row>
     <row r="93" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3"/>
-      <c r="B93" s="13"/>
+      <c r="B93" s="11"/>
       <c r="C93" s="3"/>
-      <c r="D93" s="13"/>
+      <c r="D93" s="11"/>
       <c r="E93" s="7"/>
     </row>
     <row r="94" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3"/>
-      <c r="B94" s="13"/>
+      <c r="B94" s="11"/>
       <c r="C94" s="3"/>
-      <c r="D94" s="13"/>
+      <c r="D94" s="11"/>
       <c r="E94" s="7"/>
     </row>
     <row r="95" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
-      <c r="B95" s="13"/>
+      <c r="B95" s="11"/>
       <c r="C95" s="3"/>
-      <c r="D95" s="13"/>
+      <c r="D95" s="11"/>
       <c r="E95" s="7"/>
     </row>
     <row r="96" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="3"/>
-      <c r="B96" s="13"/>
+      <c r="B96" s="11"/>
       <c r="C96" s="3"/>
-      <c r="D96" s="13"/>
+      <c r="D96" s="11"/>
       <c r="E96" s="7"/>
     </row>
     <row r="97" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="3"/>
-      <c r="B97" s="13"/>
+      <c r="B97" s="11"/>
       <c r="C97" s="3"/>
-      <c r="D97" s="13"/>
+      <c r="D97" s="11"/>
       <c r="E97" s="7"/>
     </row>
     <row r="98" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
-      <c r="B98" s="13"/>
+      <c r="B98" s="11"/>
       <c r="C98" s="3"/>
-      <c r="D98" s="13"/>
+      <c r="D98" s="11"/>
       <c r="E98" s="7"/>
     </row>
     <row r="99" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3"/>
-      <c r="B99" s="13"/>
+      <c r="B99" s="11"/>
       <c r="C99" s="3"/>
-      <c r="D99" s="13"/>
+      <c r="D99" s="11"/>
       <c r="E99" s="7"/>
     </row>
     <row r="100" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3"/>
-      <c r="B100" s="13"/>
+      <c r="B100" s="11"/>
       <c r="C100" s="3"/>
-      <c r="D100" s="13"/>
+      <c r="D100" s="11"/>
       <c r="E100" s="7"/>
     </row>
     <row r="101" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3"/>
-      <c r="B101" s="13"/>
+      <c r="B101" s="11"/>
       <c r="C101" s="3"/>
-      <c r="D101" s="13"/>
+      <c r="D101" s="11"/>
       <c r="E101" s="7"/>
     </row>
     <row r="102" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
-      <c r="B102" s="13"/>
+      <c r="B102" s="11"/>
       <c r="C102" s="3"/>
-      <c r="D102" s="13"/>
+      <c r="D102" s="11"/>
       <c r="E102" s="7"/>
     </row>
     <row r="103" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3"/>
-      <c r="B103" s="13"/>
+      <c r="B103" s="11"/>
       <c r="C103" s="3"/>
-      <c r="D103" s="13"/>
+      <c r="D103" s="11"/>
       <c r="E103" s="7"/>
     </row>
-    <row r="104" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" s="6" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="3"/>
-      <c r="B104" s="13"/>
+      <c r="B104" s="11"/>
       <c r="C104" s="3"/>
-      <c r="D104" s="13"/>
+      <c r="D104" s="11"/>
       <c r="E104" s="7"/>
     </row>
-    <row r="105" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="3"/>
-      <c r="B105" s="13"/>
+      <c r="B105" s="11"/>
       <c r="C105" s="3"/>
-      <c r="D105" s="13"/>
+      <c r="D105" s="11"/>
       <c r="E105" s="7"/>
     </row>
-    <row r="106" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3"/>
-      <c r="B106" s="13"/>
+      <c r="B106" s="11"/>
       <c r="C106" s="3"/>
-      <c r="D106" s="13"/>
+      <c r="D106" s="11"/>
       <c r="E106" s="7"/>
     </row>
-    <row r="107" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="3"/>
-      <c r="B107" s="13"/>
+      <c r="B107" s="11"/>
       <c r="C107" s="3"/>
-      <c r="D107" s="13"/>
+      <c r="D107" s="11"/>
       <c r="E107" s="7"/>
     </row>
-    <row r="108" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
-      <c r="B108" s="13"/>
+      <c r="B108" s="11"/>
       <c r="C108" s="3"/>
-      <c r="D108" s="13"/>
+      <c r="D108" s="11"/>
       <c r="E108" s="7"/>
     </row>
-    <row r="109" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="3"/>
-      <c r="B109" s="13"/>
+      <c r="B109" s="11"/>
       <c r="C109" s="3"/>
-      <c r="D109" s="13"/>
+      <c r="D109" s="11"/>
       <c r="E109" s="7"/>
     </row>
-    <row r="110" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="3"/>
-      <c r="B110" s="13"/>
+      <c r="B110" s="11"/>
       <c r="C110" s="3"/>
-      <c r="D110" s="13"/>
+      <c r="D110" s="11"/>
       <c r="E110" s="7"/>
     </row>
-    <row r="111" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="3"/>
-      <c r="B111" s="13"/>
+      <c r="B111" s="11"/>
       <c r="C111" s="3"/>
-      <c r="D111" s="13"/>
+      <c r="D111" s="11"/>
       <c r="E111" s="7"/>
     </row>
-    <row r="112" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="3"/>
-      <c r="B112" s="13"/>
+      <c r="B112" s="11"/>
       <c r="C112" s="3"/>
-      <c r="D112" s="13"/>
+      <c r="D112" s="11"/>
       <c r="E112" s="7"/>
     </row>
-    <row r="113" spans="1:5" s="6" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="3"/>
-      <c r="B113" s="13"/>
+      <c r="B113" s="11"/>
       <c r="C113" s="3"/>
-      <c r="D113" s="13"/>
+      <c r="D113" s="11"/>
       <c r="E113" s="7"/>
     </row>
     <row r="114" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="3"/>
-      <c r="B114" s="13"/>
+      <c r="B114" s="11"/>
       <c r="C114" s="3"/>
-      <c r="D114" s="13"/>
+      <c r="D114" s="11"/>
       <c r="E114" s="7"/>
     </row>
     <row r="115" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3"/>
-      <c r="B115" s="13"/>
+      <c r="B115" s="11"/>
       <c r="C115" s="3"/>
-      <c r="D115" s="13"/>
+      <c r="D115" s="11"/>
       <c r="E115" s="7"/>
     </row>
     <row r="116" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="3"/>
-      <c r="B116" s="13"/>
+      <c r="B116" s="11"/>
       <c r="C116" s="3"/>
-      <c r="D116" s="13"/>
+      <c r="D116" s="11"/>
       <c r="E116" s="7"/>
     </row>
     <row r="117" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="3"/>
-      <c r="B117" s="13"/>
+      <c r="B117" s="11"/>
       <c r="C117" s="3"/>
-      <c r="D117" s="13"/>
+      <c r="D117" s="11"/>
       <c r="E117" s="7"/>
     </row>
     <row r="118" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="3"/>
-      <c r="B118" s="13"/>
+      <c r="B118" s="11"/>
       <c r="C118" s="3"/>
-      <c r="D118" s="13"/>
+      <c r="D118" s="11"/>
       <c r="E118" s="7"/>
     </row>
     <row r="119" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="3"/>
-      <c r="B119" s="13"/>
+      <c r="B119" s="11"/>
       <c r="C119" s="3"/>
-      <c r="D119" s="13"/>
+      <c r="D119" s="11"/>
       <c r="E119" s="7"/>
     </row>
     <row r="120" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
-      <c r="B120" s="13"/>
+      <c r="B120" s="11"/>
       <c r="C120" s="3"/>
-      <c r="D120" s="13"/>
+      <c r="D120" s="11"/>
       <c r="E120" s="7"/>
     </row>
     <row r="121" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
-      <c r="B121" s="13"/>
+      <c r="B121" s="11"/>
       <c r="C121" s="3"/>
-      <c r="D121" s="13"/>
+      <c r="D121" s="11"/>
       <c r="E121" s="7"/>
     </row>
     <row r="122" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="3"/>
-      <c r="B122" s="13"/>
+      <c r="B122" s="11"/>
       <c r="C122" s="3"/>
-      <c r="D122" s="13"/>
+      <c r="D122" s="11"/>
       <c r="E122" s="7"/>
     </row>
     <row r="123" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="3"/>
-      <c r="B123" s="13"/>
+      <c r="B123" s="11"/>
       <c r="C123" s="3"/>
-      <c r="D123" s="13"/>
+      <c r="D123" s="11"/>
       <c r="E123" s="7"/>
     </row>
     <row r="124" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="3"/>
-      <c r="B124" s="13"/>
+      <c r="B124" s="11"/>
       <c r="C124" s="3"/>
-      <c r="D124" s="13"/>
+      <c r="D124" s="11"/>
       <c r="E124" s="7"/>
     </row>
     <row r="125" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="3"/>
-      <c r="B125" s="13"/>
+      <c r="B125" s="11"/>
       <c r="C125" s="3"/>
-      <c r="D125" s="13"/>
+      <c r="D125" s="11"/>
       <c r="E125" s="7"/>
     </row>
     <row r="126" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="3"/>
-      <c r="B126" s="13"/>
+      <c r="B126" s="11"/>
       <c r="C126" s="3"/>
-      <c r="D126" s="13"/>
+      <c r="D126" s="11"/>
       <c r="E126" s="7"/>
     </row>
     <row r="127" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="3"/>
-      <c r="B127" s="13"/>
+      <c r="B127" s="11"/>
       <c r="C127" s="3"/>
-      <c r="D127" s="13"/>
+      <c r="D127" s="11"/>
       <c r="E127" s="7"/>
     </row>
     <row r="128" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="3"/>
-      <c r="B128" s="13"/>
+      <c r="B128" s="11"/>
       <c r="C128" s="3"/>
-      <c r="D128" s="13"/>
+      <c r="D128" s="11"/>
       <c r="E128" s="7"/>
     </row>
     <row r="129" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="3"/>
-      <c r="B129" s="13"/>
+      <c r="B129" s="11"/>
       <c r="C129" s="3"/>
-      <c r="D129" s="13"/>
+      <c r="D129" s="11"/>
       <c r="E129" s="7"/>
     </row>
     <row r="130" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="3"/>
-      <c r="B130" s="13"/>
+      <c r="B130" s="11"/>
       <c r="C130" s="3"/>
-      <c r="D130" s="13"/>
+      <c r="D130" s="11"/>
       <c r="E130" s="7"/>
     </row>
     <row r="131" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="3"/>
-      <c r="B131" s="13"/>
+      <c r="B131" s="11"/>
       <c r="C131" s="3"/>
-      <c r="D131" s="13"/>
+      <c r="D131" s="11"/>
       <c r="E131" s="7"/>
     </row>
-    <row r="132" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="3"/>
-      <c r="B132" s="13"/>
+      <c r="B132" s="11"/>
       <c r="C132" s="3"/>
-      <c r="D132" s="13"/>
-      <c r="E132" s="7"/>
-    </row>
-    <row r="133" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D132" s="11"/>
+      <c r="E132" s="3"/>
+    </row>
+    <row r="133" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="3"/>
-      <c r="B133" s="13"/>
+      <c r="B133" s="11"/>
       <c r="C133" s="3"/>
-      <c r="D133" s="13"/>
-      <c r="E133" s="7"/>
-    </row>
-    <row r="134" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D133" s="11"/>
+      <c r="E133" s="3"/>
+    </row>
+    <row r="134" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="3"/>
-      <c r="B134" s="13"/>
+      <c r="B134" s="11"/>
       <c r="C134" s="3"/>
-      <c r="D134" s="13"/>
-      <c r="E134" s="7"/>
-    </row>
-    <row r="135" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D134" s="11"/>
+      <c r="E134" s="3"/>
+    </row>
+    <row r="135" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="3"/>
-      <c r="B135" s="13"/>
+      <c r="B135" s="11"/>
       <c r="C135" s="3"/>
-      <c r="D135" s="13"/>
-      <c r="E135" s="7"/>
-    </row>
-    <row r="136" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D135" s="11"/>
+      <c r="E135" s="3"/>
+    </row>
+    <row r="136" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="3"/>
-      <c r="B136" s="13"/>
+      <c r="B136" s="11"/>
       <c r="C136" s="3"/>
-      <c r="D136" s="13"/>
-      <c r="E136" s="7"/>
-    </row>
-    <row r="137" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D136" s="11"/>
+      <c r="E136" s="3"/>
+    </row>
+    <row r="137" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="3"/>
-      <c r="B137" s="13"/>
+      <c r="B137" s="11"/>
       <c r="C137" s="3"/>
-      <c r="D137" s="13"/>
-      <c r="E137" s="7"/>
-    </row>
-    <row r="138" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D137" s="11"/>
+      <c r="E137" s="3"/>
+    </row>
+    <row r="138" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="3"/>
-      <c r="B138" s="13"/>
+      <c r="B138" s="11"/>
       <c r="C138" s="3"/>
-      <c r="D138" s="13"/>
-      <c r="E138" s="7"/>
-    </row>
-    <row r="139" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D138" s="11"/>
+      <c r="E138" s="3"/>
+    </row>
+    <row r="139" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="3"/>
-      <c r="B139" s="13"/>
+      <c r="B139" s="11"/>
       <c r="C139" s="3"/>
-      <c r="D139" s="13"/>
-      <c r="E139" s="7"/>
-    </row>
-    <row r="140" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D139" s="11"/>
+      <c r="E139" s="3"/>
+    </row>
+    <row r="140" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="3"/>
-      <c r="B140" s="13"/>
+      <c r="B140" s="11"/>
       <c r="C140" s="3"/>
-      <c r="D140" s="13"/>
-      <c r="E140" s="7"/>
+      <c r="D140" s="11"/>
+      <c r="E140" s="3"/>
     </row>
     <row r="141" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="3"/>
-      <c r="B141" s="13"/>
+      <c r="B141" s="11"/>
       <c r="C141" s="3"/>
-      <c r="D141" s="13"/>
+      <c r="D141" s="11"/>
       <c r="E141" s="3"/>
     </row>
-    <row r="142" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="3"/>
-      <c r="B142" s="13"/>
-      <c r="C142" s="3"/>
-      <c r="D142" s="13"/>
-      <c r="E142" s="3"/>
-    </row>
-    <row r="143" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A143" s="3"/>
-      <c r="B143" s="13"/>
-      <c r="C143" s="3"/>
-      <c r="D143" s="13"/>
-      <c r="E143" s="3"/>
-    </row>
-    <row r="144" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="3"/>
-      <c r="B144" s="13"/>
-      <c r="C144" s="3"/>
-      <c r="D144" s="13"/>
-      <c r="E144" s="3"/>
-    </row>
-    <row r="145" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A145" s="3"/>
-      <c r="B145" s="13"/>
-      <c r="C145" s="3"/>
-      <c r="D145" s="13"/>
-      <c r="E145" s="3"/>
-    </row>
-    <row r="146" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A146" s="3"/>
-      <c r="B146" s="13"/>
-      <c r="C146" s="3"/>
-      <c r="D146" s="13"/>
-      <c r="E146" s="3"/>
-    </row>
-    <row r="147" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A147" s="3"/>
-      <c r="B147" s="13"/>
-      <c r="C147" s="3"/>
-      <c r="D147" s="13"/>
-      <c r="E147" s="3"/>
-    </row>
-    <row r="148" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A148" s="3"/>
-      <c r="B148" s="13"/>
-      <c r="C148" s="3"/>
-      <c r="D148" s="13"/>
-      <c r="E148" s="3"/>
-    </row>
-    <row r="149" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A149" s="3"/>
-      <c r="B149" s="13"/>
-      <c r="C149" s="3"/>
-      <c r="D149" s="13"/>
-      <c r="E149" s="3"/>
-    </row>
-    <row r="150" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A150" s="3"/>
-      <c r="B150" s="13"/>
-      <c r="C150" s="3"/>
-      <c r="D150" s="13"/>
-      <c r="E150" s="3"/>
-    </row>
-    <row r="151" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="161" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="162" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="163" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3682,15 +3520,6 @@
     <row r="200" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="201" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="202" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
@@ -3702,40 +3531,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34:E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" style="14"/>
+    <col min="2" max="2" width="10.83203125" style="12"/>
     <col min="3" max="3" width="25.1640625" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="14"/>
+    <col min="4" max="4" width="10.83203125" style="12"/>
     <col min="5" max="5" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="A1" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -3746,110 +3575,110 @@
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="13"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="13"/>
+      <c r="D3" s="11"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>73</v>
+      <c r="B4" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>343</v>
+      <c r="B5" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>83</v>
+      <c r="B6" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>344</v>
+      <c r="B7" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>345</v>
+      <c r="B8" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3857,280 +3686,280 @@
       <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>98</v>
+      <c r="C10" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>346</v>
+      <c r="B11" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>9</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>101</v>
+      <c r="B12" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>10</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>93</v>
+      <c r="B13" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>11</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>222</v>
+      <c r="B14" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>12</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>103</v>
+      <c r="B15" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>13</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>347</v>
+      <c r="B16" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>14</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>348</v>
+      <c r="B17" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>15</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>328</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>107</v>
+      <c r="B18" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>16</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>349</v>
+      <c r="B19" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>17</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>350</v>
+      <c r="B20" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>18</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>351</v>
+      <c r="C21" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>19</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>332</v>
-      </c>
-      <c r="D22" s="13" t="s">
+      <c r="C22" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="D22" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="15" t="s">
-        <v>233</v>
+      <c r="E22" s="13" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>20</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="D23" s="13" t="s">
+      <c r="C23" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="15" t="s">
-        <v>233</v>
+      <c r="E23" s="13" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="15"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="13"/>
     </row>
     <row r="25" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>1</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="D25" s="13" t="s">
+      <c r="C25" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="D25" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="15" t="s">
-        <v>352</v>
+      <c r="E25" s="13" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>2</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="D26" s="13" t="s">
+      <c r="C26" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="D26" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="13" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4138,198 +3967,194 @@
       <c r="A27" s="3">
         <v>3</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>353</v>
+      <c r="C27" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>4</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="15" t="s">
-        <v>335</v>
-      </c>
-      <c r="D28" s="13" t="s">
+      <c r="C28" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="D28" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E28" s="15" t="s">
-        <v>354</v>
+      <c r="E28" s="13" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>5</v>
       </c>
-      <c r="B29" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>336</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>355</v>
+      <c r="B29" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>6</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="15" t="s">
-        <v>335</v>
-      </c>
-      <c r="D30" s="13" t="s">
+      <c r="C30" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="D30" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E30" s="15" t="s">
-        <v>354</v>
+      <c r="E30" s="13" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>7</v>
       </c>
-      <c r="B31" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>337</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>356</v>
+      <c r="B31" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>8</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="D32" s="13" t="s">
+      <c r="C32" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="D32" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E32" s="15" t="s">
-        <v>354</v>
+      <c r="E32" s="13" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="15"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="13"/>
     </row>
     <row r="34" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="15" t="s">
-        <v>339</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>357</v>
-      </c>
+      <c r="C34" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="13"/>
     </row>
     <row r="35" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>358</v>
+      <c r="B35" s="11"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="15"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="13"/>
     </row>
     <row r="37" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>1</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="D37" s="13" t="s">
+      <c r="C37" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="D37" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E37" s="15" t="s">
-        <v>359</v>
+      <c r="E37" s="13" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>2</v>
       </c>
-      <c r="B38" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>340</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>324</v>
+      <c r="B38" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>3</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E39" s="15" t="s">
+      <c r="E39" s="13" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4337,33 +4162,33 @@
       <c r="A40" s="3">
         <v>4</v>
       </c>
-      <c r="B40" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>121</v>
+      <c r="B40" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>5</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E41" s="15" t="s">
+      <c r="E41" s="13" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4371,281 +4196,171 @@
       <c r="A42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B42" s="13"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="15"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="13"/>
     </row>
     <row r="43" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="D43" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>301</v>
+      <c r="E43" s="13" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E44" s="15" t="s">
-        <v>360</v>
+      <c r="B44" s="11"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>361</v>
+      <c r="B45" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="13" t="s">
+      <c r="B46" s="11"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E46" s="15" t="s">
-        <v>362</v>
+      <c r="E46" s="13" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="3"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E47" s="15" t="s">
-        <v>363</v>
+      <c r="A47" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E48" s="15" t="s">
-        <v>364</v>
+      <c r="B48" s="11"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>361</v>
+        <v>20</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>365</v>
+      <c r="B50" s="11"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="51" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>363</v>
+      <c r="B51" s="11"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="52" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="3"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>197</v>
+      <c r="A52" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="D53" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>366</v>
+      <c r="A53" s="3"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E54" s="15" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="3"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="3"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E56" s="15" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="3"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E57" s="15" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="3"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E58" s="15" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B59" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C59" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E59" s="15" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="3"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E60" s="15" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="3"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E61" s="15" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="3"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E62" s="15" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="3"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E63" s="15" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="3"/>
-      <c r="B64" s="13"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E64" s="15" t="s">
-        <v>370</v>
+      <c r="B54" s="11"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -4659,40 +4374,40 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A50" activeCellId="2" sqref="A47:XFD47 A54:XFD54 A50:XFD50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="14" style="14" customWidth="1"/>
+    <col min="2" max="2" width="14" style="12" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="14"/>
+    <col min="4" max="4" width="10.83203125" style="12"/>
     <col min="5" max="5" width="32.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="A1" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -4703,229 +4418,229 @@
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="13"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="13"/>
+      <c r="D3" s="11"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>311</v>
+      <c r="B4" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>312</v>
+      <c r="C5" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>313</v>
+      <c r="B6" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>314</v>
+      <c r="B7" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>138</v>
+      <c r="B8" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>149</v>
+      <c r="B9" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>86</v>
+      <c r="B10" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>141</v>
+      <c r="B11" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>9</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>315</v>
+      <c r="B12" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>10</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>316</v>
+      <c r="C13" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>11</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>317</v>
+      <c r="B14" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>12</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>318</v>
+      <c r="B15" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>13</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D16" s="13" t="s">
+      <c r="C16" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="13" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4933,33 +4648,33 @@
       <c r="A17" s="3">
         <v>14</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>319</v>
+      <c r="B17" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>15</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4967,67 +4682,67 @@
       <c r="A19" s="3">
         <v>16</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>223</v>
+      <c r="B19" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>17</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="E20" s="13" t="s">
         <v>148</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>18</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>320</v>
+      <c r="B21" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>19</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5035,16 +4750,16 @@
       <c r="A23" s="3">
         <v>20</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D23" s="13" t="s">
+      <c r="C23" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="13" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5052,25 +4767,25 @@
       <c r="A24" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="13"/>
+      <c r="B24" s="11"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="15"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="13"/>
     </row>
     <row r="25" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>1</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5078,33 +4793,33 @@
       <c r="A26" s="3">
         <v>2</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="D26" s="13" t="s">
+      <c r="C26" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D26" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="15" t="s">
-        <v>321</v>
+      <c r="E26" s="13" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>3</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E27" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5112,33 +4827,33 @@
       <c r="A28" s="3">
         <v>4</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="D28" s="13" t="s">
+      <c r="C28" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D28" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E28" s="15" t="s">
-        <v>321</v>
+      <c r="E28" s="13" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>5</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="E29" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5146,33 +4861,33 @@
       <c r="A30" s="3">
         <v>6</v>
       </c>
-      <c r="B30" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>322</v>
+      <c r="B30" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>7</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="15" t="s">
+      <c r="E31" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5180,430 +4895,321 @@
       <c r="A32" s="3">
         <v>8</v>
       </c>
-      <c r="B32" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>323</v>
+      <c r="B32" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="13"/>
+      <c r="B33" s="11"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="15"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="13"/>
     </row>
     <row r="34" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="B34" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B34" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>295</v>
-      </c>
+      <c r="C34" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="13"/>
     </row>
     <row r="35" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
-      <c r="B35" s="13"/>
+      <c r="B35" s="11"/>
       <c r="C35" s="3"/>
-      <c r="D35" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>296</v>
+      <c r="D35" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="13"/>
+      <c r="B36" s="11"/>
       <c r="C36" s="3"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="15"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="13"/>
     </row>
     <row r="37" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>1</v>
       </c>
-      <c r="B37" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>324</v>
+      <c r="B37" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>2</v>
       </c>
-      <c r="B38" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>238</v>
+      <c r="B38" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>3</v>
       </c>
-      <c r="B39" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>164</v>
+      <c r="B39" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>4</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>166</v>
+      <c r="C40" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>5</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>325</v>
+      <c r="C41" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B42" s="13"/>
+      <c r="B42" s="11"/>
       <c r="C42" s="3"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="15"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="13"/>
     </row>
     <row r="43" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>301</v>
+      <c r="E43" s="13" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
-      <c r="B44" s="13"/>
+      <c r="B44" s="11"/>
       <c r="C44" s="3"/>
-      <c r="D44" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E44" s="15" t="s">
-        <v>326</v>
+      <c r="D44" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C45" s="15" t="s">
+      <c r="B45" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>299</v>
+      <c r="C45" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
-      <c r="B46" s="13"/>
+      <c r="B46" s="11"/>
       <c r="C46" s="3"/>
-      <c r="D46" s="13" t="s">
+      <c r="D46" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E46" s="15" t="s">
-        <v>300</v>
+      <c r="E46" s="13" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="3"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E47" s="15" t="s">
-        <v>301</v>
+      <c r="A47" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
-      <c r="B48" s="13"/>
+      <c r="B48" s="11"/>
       <c r="C48" s="3"/>
-      <c r="D48" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E48" s="15" t="s">
-        <v>327</v>
+      <c r="D48" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>299</v>
+        <v>20</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
-      <c r="B50" s="13"/>
+      <c r="B50" s="11"/>
       <c r="C50" s="3"/>
-      <c r="D50" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>309</v>
+      <c r="D50" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="51" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
-      <c r="B51" s="13"/>
+      <c r="B51" s="11"/>
       <c r="C51" s="3"/>
-      <c r="D51" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>301</v>
+      <c r="D51" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="52" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="3"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="13" t="s">
+      <c r="A52" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="3"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E52" s="15" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D53" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>295</v>
+      <c r="E53" s="13" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
-      <c r="B54" s="13"/>
+      <c r="B54" s="11"/>
       <c r="C54" s="3"/>
-      <c r="D54" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E54" s="15" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D54" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="3"/>
-      <c r="B55" s="13"/>
+      <c r="B55" s="11"/>
       <c r="C55" s="3"/>
-      <c r="D55" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="3"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E56" s="15" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="3"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E57" s="15" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="3"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E58" s="15" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B59" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C59" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E59" s="15" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="3"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E60" s="15" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="3"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E61" s="15" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="3"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E62" s="15" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="3"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E63" s="15" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="3"/>
-      <c r="B64" s="13"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E64" s="15" t="s">
-        <v>326</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5616,10 +5222,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -5629,25 +5235,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="A1" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -5658,59 +5264,59 @@
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="13"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="13"/>
+      <c r="D3" s="11"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>286</v>
+      <c r="B4" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>83</v>
+      <c r="B5" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="13" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5718,50 +5324,50 @@
       <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="D7" s="13" t="s">
+      <c r="C7" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>174</v>
+      <c r="E7" s="13" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>287</v>
+      <c r="C8" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="13" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5769,237 +5375,237 @@
       <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>86</v>
+      <c r="B10" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>288</v>
+      <c r="B11" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>9</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>289</v>
+      <c r="B12" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>10</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>93</v>
+      <c r="C13" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>11</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>290</v>
+      <c r="B14" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>12</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>179</v>
+      <c r="B15" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>13</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>181</v>
+      <c r="B16" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>14</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>291</v>
+      <c r="B17" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>15</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>292</v>
+      <c r="B18" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>16</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>101</v>
+      <c r="B19" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>17</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>121</v>
+      <c r="B20" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>18</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>183</v>
+      <c r="C21" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>19</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>293</v>
+      <c r="B22" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>20</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="D23" s="13" t="s">
+      <c r="C23" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="13" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6007,42 +5613,42 @@
       <c r="A24" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="15"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="13"/>
     </row>
     <row r="25" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>1</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>188</v>
+      <c r="B25" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>2</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6050,16 +5656,16 @@
       <c r="A27" s="3">
         <v>3</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E27" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6067,33 +5673,33 @@
       <c r="A28" s="3">
         <v>4</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>294</v>
+      <c r="C28" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>5</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="E29" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6101,16 +5707,16 @@
       <c r="A30" s="3">
         <v>6</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E30" s="15" t="s">
+      <c r="E30" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6118,16 +5724,16 @@
       <c r="A31" s="3">
         <v>7</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="15" t="s">
+      <c r="E31" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6135,16 +5741,16 @@
       <c r="A32" s="3">
         <v>8</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E32" s="15" t="s">
+      <c r="E32" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6152,181 +5758,177 @@
       <c r="A33" s="3">
         <v>9</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="D33" s="13" t="s">
+      <c r="C33" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="D33" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E33" s="15" t="s">
-        <v>235</v>
+      <c r="E33" s="13" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="15"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="13"/>
     </row>
     <row r="35" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="B35" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B35" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>295</v>
-      </c>
+      <c r="C35" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D35" s="11"/>
+      <c r="E35" s="13"/>
     </row>
     <row r="36" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>296</v>
+      <c r="B36" s="11"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="15"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="13"/>
     </row>
     <row r="38" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>1</v>
       </c>
-      <c r="B38" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>238</v>
+      <c r="B38" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>2</v>
       </c>
-      <c r="B39" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>193</v>
+      <c r="B39" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>3</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D40" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="C40" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>297</v>
+      <c r="E40" s="13" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>4</v>
       </c>
-      <c r="B41" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>164</v>
+      <c r="B41" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>5</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="D42" s="13" t="s">
+      <c r="C42" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D42" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E42" s="15" t="s">
-        <v>298</v>
+      <c r="E42" s="13" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>6</v>
       </c>
-      <c r="B43" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>181</v>
+      <c r="B43" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>7</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D44" s="13" t="s">
+      <c r="D44" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E44" s="15" t="s">
+      <c r="E44" s="13" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6334,355 +5936,250 @@
       <c r="A45" s="3">
         <v>8</v>
       </c>
-      <c r="B45" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>240</v>
+      <c r="B45" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B46" s="13"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="15"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="13"/>
     </row>
     <row r="47" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B47" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E47" s="15" t="s">
-        <v>299</v>
+      <c r="B47" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E48" s="15" t="s">
-        <v>300</v>
+      <c r="B48" s="11"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="3"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>301</v>
+      <c r="A49" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>197</v>
+      <c r="B50" s="11"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="51" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B51" s="13" t="s">
+      <c r="A51" s="3"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B52" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C51" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E51" s="15" t="s">
+      <c r="C52" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E52" s="13" t="s">
         <v>295</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="3"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>303</v>
+      <c r="B53" s="11"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E54" s="15" t="s">
-        <v>304</v>
+      <c r="B54" s="11"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="3"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>305</v>
+      <c r="A55" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="56" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E56" s="15" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B57" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C57" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E57" s="15" t="s">
-        <v>295</v>
-      </c>
+      <c r="B56" s="11"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="3"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="3"/>
     </row>
     <row r="58" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E58" s="15" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="3"/>
-      <c r="B59" s="13"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E59" s="15" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="11"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="16"/>
+    </row>
+    <row r="59" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="14"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="15"/>
+      <c r="E59"/>
+    </row>
+    <row r="60" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="3"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E60" s="15" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="11"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="8"/>
+    </row>
+    <row r="61" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="3"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E61" s="15" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="11"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="11"/>
+      <c r="E61"/>
+    </row>
+    <row r="62" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="3"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="E62" s="15" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B63" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C63" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="D63" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E63" s="15" t="s">
-        <v>299</v>
-      </c>
+      <c r="B62" s="11"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="8"/>
+    </row>
+    <row r="63" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="3"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="11"/>
+      <c r="E63"/>
     </row>
     <row r="64" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
-      <c r="B64" s="13"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E64" s="15" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="11"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="8"/>
+    </row>
+    <row r="65" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="3"/>
-      <c r="B65" s="13"/>
+      <c r="B65" s="11"/>
       <c r="C65" s="3"/>
-      <c r="D65" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E65" s="15" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D65" s="11"/>
+      <c r="E65"/>
+    </row>
+    <row r="66" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="3"/>
-      <c r="B66" s="13"/>
+      <c r="B66" s="11"/>
       <c r="C66" s="3"/>
-      <c r="D66" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="E66" s="15" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D66" s="11"/>
+      <c r="E66" s="8"/>
+    </row>
+    <row r="67" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="3"/>
-      <c r="B67" s="13"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="18"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="11"/>
+      <c r="E67"/>
     </row>
     <row r="68" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="16"/>
-      <c r="B68" s="17"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="17"/>
-      <c r="E68"/>
+      <c r="A68" s="3"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="8"/>
     </row>
     <row r="69" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="3"/>
-      <c r="B69" s="13"/>
+      <c r="B69" s="11"/>
       <c r="C69" s="3"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="8"/>
-    </row>
-    <row r="70" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="3"/>
-      <c r="B70" s="13"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="13"/>
-      <c r="E70"/>
-    </row>
-    <row r="71" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="3"/>
-      <c r="B71" s="13"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="8"/>
-    </row>
-    <row r="72" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="3"/>
-      <c r="B72" s="13"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="13"/>
-      <c r="E72"/>
-    </row>
-    <row r="73" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="3"/>
-      <c r="B73" s="13"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="8"/>
-    </row>
-    <row r="74" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="3"/>
-      <c r="B74" s="13"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="13"/>
-      <c r="E74"/>
-    </row>
-    <row r="75" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="3"/>
-      <c r="B75" s="13"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="8"/>
-    </row>
-    <row r="76" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="3"/>
-      <c r="B76" s="13"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="13"/>
-      <c r="E76"/>
-    </row>
-    <row r="77" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="3"/>
-      <c r="B77" s="13"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="8"/>
-    </row>
-    <row r="78" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="3"/>
-      <c r="B78" s="13"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="13"/>
-      <c r="E78"/>
+      <c r="D69" s="11"/>
+      <c r="E69"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6695,10 +6192,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -6708,25 +6205,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="A1" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -6737,913 +6234,804 @@
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="13"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="13"/>
+      <c r="D3" s="11"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>242</v>
+      <c r="C4" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>243</v>
+      <c r="B5" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>110</v>
+      <c r="E6" s="13" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>244</v>
+      <c r="B7" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>245</v>
+      <c r="B8" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>246</v>
+      <c r="B9" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>225</v>
+      <c r="B10" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>247</v>
+      <c r="B11" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>9</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>248</v>
+      <c r="B12" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>10</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>249</v>
+      <c r="B13" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>11</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>250</v>
+      <c r="B14" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>12</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>211</v>
+      <c r="B15" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>13</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>251</v>
+      <c r="B16" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>14</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>252</v>
+      <c r="C17" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>15</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>253</v>
+      <c r="B18" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>16</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>217</v>
+      <c r="B19" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>17</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>121</v>
+      <c r="B20" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>18</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>254</v>
+      <c r="B21" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>19</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="D22" s="13" t="s">
+      <c r="C22" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="D22" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="15" t="s">
-        <v>255</v>
+      <c r="E22" s="13" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>20</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="D23" s="13" t="s">
+      <c r="C23" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="15" t="s">
-        <v>256</v>
+      <c r="E23" s="13" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="15"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="13"/>
     </row>
     <row r="25" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>1</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="15" t="s">
-        <v>257</v>
+      <c r="E25" s="13" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>2</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>258</v>
+      <c r="C26" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>3</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="15" t="s">
-        <v>259</v>
+      <c r="E27" s="13" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>4</v>
       </c>
-      <c r="B28" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="D28" s="13" t="s">
+      <c r="B28" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="D28" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="15" t="s">
-        <v>174</v>
+      <c r="E28" s="13" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>5</v>
       </c>
-      <c r="B29" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="D29" s="13" t="s">
+      <c r="B29" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="D29" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="15" t="s">
-        <v>174</v>
+      <c r="E29" s="13" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>6</v>
       </c>
-      <c r="B30" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="D30" s="13" t="s">
+      <c r="B30" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="D30" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E30" s="15" t="s">
-        <v>174</v>
+      <c r="E30" s="13" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>7</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="15" t="s">
-        <v>259</v>
+      <c r="E31" s="13" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>8</v>
       </c>
-      <c r="B32" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>186</v>
+      <c r="B32" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="15"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="13"/>
     </row>
     <row r="34" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="B34" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B34" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>260</v>
-      </c>
+      <c r="C34" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="13"/>
     </row>
     <row r="35" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>261</v>
+      <c r="B35" s="11"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="15"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="13"/>
     </row>
     <row r="37" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>1</v>
       </c>
-      <c r="B37" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>262</v>
+      <c r="B37" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>2</v>
       </c>
-      <c r="B38" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>263</v>
+      <c r="B38" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>3</v>
       </c>
-      <c r="B39" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>264</v>
+      <c r="B39" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>4</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C40" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E40" s="15" t="s">
-        <v>110</v>
+      <c r="E40" s="13" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>5</v>
       </c>
-      <c r="B41" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>265</v>
+      <c r="B41" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>6</v>
       </c>
-      <c r="B42" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="E42" s="15" t="s">
-        <v>266</v>
+      <c r="B42" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>7</v>
       </c>
-      <c r="B43" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>267</v>
+      <c r="B43" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="13"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="15"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="13"/>
     </row>
     <row r="45" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>268</v>
+      <c r="B45" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>269</v>
+      <c r="B46" s="11"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="3"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E47" s="15" t="s">
-        <v>270</v>
+      <c r="A47" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="E48" s="15" t="s">
-        <v>271</v>
+      <c r="B48" s="11"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B49" s="13" t="s">
+      <c r="A49" s="3"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B50" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C49" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="3"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>272</v>
+      <c r="C50" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="51" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>273</v>
+      <c r="B51" s="11"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="52" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>274</v>
+      <c r="B52" s="11"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="3"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>275</v>
+      <c r="A53" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E54" s="15" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C55" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="3"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E56" s="15" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="3"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E57" s="15" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="3"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E58" s="15" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="3"/>
-      <c r="B59" s="13"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E59" s="15" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="3"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="E60" s="15" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C61" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E61" s="15" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="3"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E62" s="15" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="3"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E63" s="15" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="3"/>
-      <c r="B64" s="13"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="E64" s="15" t="s">
-        <v>280</v>
-      </c>
+      <c r="B54" s="11"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="3"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
